--- a/CaVaTeCo/pedido_imprimir_mapas.xlsx
+++ b/CaVaTeCo/pedido_imprimir_mapas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C08E93C-CAAD-4319-9C9E-DBC57AB52AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99754C2-13C1-4DD5-8164-03ED6E40BC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -624,6 +624,54 @@
     <t>Número de telemóvel:</t>
   </si>
   <si>
+    <t>O número não está no formato correcto. Faça o favor de conferir</t>
+  </si>
+  <si>
+    <t>O endereço não está no formato correcto. Faça o favor de conferir</t>
+  </si>
+  <si>
+    <t>select_one_from_file enum_names.csv</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext})</t>
+  </si>
+  <si>
+    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
+  </si>
+  <si>
+    <t>searchtext_1</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do povoado para filtrar a lista de povoados já registados:</t>
+  </si>
+  <si>
+    <t>select_one_from_file village_names.csv</t>
+  </si>
+  <si>
+    <t>Selecionar o nome de povoado:</t>
+  </si>
+  <si>
+    <t>starts-with(label,${searchtext_1})</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;Se o nome &lt;span style="color:#FF6347"&gt;não aparece&lt;/span&gt; em baixo, quer dizer que ainda não foi feito o registo do povoado, ou que houve problema na actualização do sistema. Não será possível continuar. Deve conferir o registo de povoado através do 'Formulário B - Povoados', e depois actualizar os dados, e voltar a repetir o registo de lider mais tarde.  Pode fechar o Formulário sem gravar.</t>
+  </si>
+  <si>
+    <t>instance('village_names')/root/item[name=${village_id}]/village_name</t>
+  </si>
+  <si>
+    <t>municipalities</t>
+  </si>
+  <si>
+    <t>tf_logo.jpg</t>
+  </si>
+  <si>
+    <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;br/&gt; &lt;span style="color:#FF0000"&gt;O sumário do seu pedido é o seguinte:&lt;/span&gt; 
 Povoado: 
 &lt;h1&gt;${village_name}&lt;/h1&gt;
@@ -634,55 +682,7 @@
 Tipo de Entrega: 
 &lt;h1&gt;${order_summ_delivery}&lt;/h1&gt;
 Mapas especificas: &lt;h1&gt;${map_refs}&lt;/h1&gt;
-Na base da informação fornecida, vamos calcular o numero de mapas necessárias, e avisar a data de entrega. </t>
-  </si>
-  <si>
-    <t>O número não está no formato correcto. Faça o favor de conferir</t>
-  </si>
-  <si>
-    <t>O endereço não está no formato correcto. Faça o favor de conferir</t>
-  </si>
-  <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
-    <t>select_one_from_file enum_names.csv</t>
-  </si>
-  <si>
-    <t>starts-with(label,${searchtext})</t>
-  </si>
-  <si>
-    <t>instance('enum_names')/root/item[name=${enum_name_id}]/enumerator_name</t>
-  </si>
-  <si>
-    <t>searchtext_1</t>
-  </si>
-  <si>
-    <t>Digite a primeira letra do povoado para filtrar a lista de povoados já registados:</t>
-  </si>
-  <si>
-    <t>select_one_from_file village_names.csv</t>
-  </si>
-  <si>
-    <t>Selecionar o nome de povoado:</t>
-  </si>
-  <si>
-    <t>starts-with(label,${searchtext_1})</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;Se o nome &lt;span style="color:#FF6347"&gt;não aparece&lt;/span&gt; em baixo, quer dizer que ainda não foi feito o registo do povoado, ou que houve problema na actualização do sistema. Não será possível continuar. Deve conferir o registo de povoado através do 'Formulário B - Povoados', e depois actualizar os dados, e voltar a repetir o registo de lider mais tarde.  Pode fechar o Formulário sem gravar.</t>
-  </si>
-  <si>
-    <t>instance('village_names')/root/item[name=${village_id}]/village_name</t>
-  </si>
-  <si>
-    <t>municipalities</t>
-  </si>
-  <si>
-    <t>tf_logo.jpg</t>
-  </si>
-  <si>
-    <t>"CLCR Lot 1 Avante"</t>
+Na base da informação fornecida, vamos calcular o numero de mapas necessários, e avisar a data de entrega. </t>
   </si>
 </sst>
 </file>
@@ -1414,9 +1414,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="245" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1430,6 +1427,9 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="246">
@@ -2017,11 +2017,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,7 +2166,7 @@
         <v>103</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:32" s="35" customFormat="1" x14ac:dyDescent="0.3">
@@ -2199,8 +2199,8 @@
       <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="77" t="s">
-        <v>208</v>
+      <c r="O10" s="76" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2227,7 +2227,7 @@
       <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="77" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2235,30 +2235,30 @@
       <c r="A14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>185</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J14" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
-        <v>197</v>
+      <c r="A15" s="79" t="s">
+        <v>195</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="79" t="s">
         <v>186</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="79" t="s">
         <v>187</v>
       </c>
       <c r="J15" s="46" t="s">
@@ -2269,11 +2269,11 @@
       <c r="A16" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>188</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -2357,31 +2357,31 @@
       <c r="A21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>200</v>
+      <c r="B21" s="78" t="s">
+        <v>198</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J21" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="46" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
-        <v>202</v>
+      <c r="A22" s="79" t="s">
+        <v>200</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="80" t="s">
+      <c r="C22" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="79" t="s">
         <v>203</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>205</v>
       </c>
       <c r="J22" s="46" t="s">
         <v>19</v>
@@ -2391,11 +2391,11 @@
       <c r="A23" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>148</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2547,7 @@
         <v>65</v>
       </c>
       <c r="I32" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J32" s="42" t="s">
         <v>19</v>
@@ -2567,7 +2567,7 @@
         <v>59</v>
       </c>
       <c r="I33" s="73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J33" s="42" t="s">
         <v>19</v>
@@ -2616,8 +2616,8 @@
       <c r="B37" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="74" t="s">
-        <v>193</v>
+      <c r="C37" s="80" t="s">
+        <v>209</v>
       </c>
       <c r="G37" s="31"/>
       <c r="N37" s="48"/>
@@ -7839,13 +7839,13 @@
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A854" s="76" t="s">
-        <v>207</v>
+      <c r="A854" s="75" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A855" s="76" t="s">
-        <v>207</v>
+      <c r="A855" s="75" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7858,8 +7858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7896,9 +7896,9 @@
         <v>190</v>
       </c>
       <c r="C2" s="63">
-        <v>202401</v>
-      </c>
-      <c r="D2" s="75"/>
+        <v>202402</v>
+      </c>
+      <c r="D2" s="74"/>
       <c r="E2" s="38" t="s">
         <v>104</v>
       </c>
